--- a/注意.xlsx
+++ b/注意.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devSCSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4B9C64-F248-4450-A5FB-497CC192C1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{86C5E9BB-30E0-4D3D-848F-0648D786BA43}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="python" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>フォルダを作成</t>
     <rPh sb="5" eb="7">
@@ -96,85 +96,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下コマンドを入力</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>⑤</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>pipインストールしていく</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pip install slack_bolt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pip install dotenv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>pip install selenium(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>webdriver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は4.6以上のバージョンでは内臓されているので、別途インストールはしないように！！！！した場合は※1へ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <rPh sb="35" eb="37">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ナイゾウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -294,12 +220,67 @@
   <si>
     <t>ATATT3xFfGF0xhpdQSMHoSK7vevFtLRStk80UtKxvepeO43Sa5ztoXTXemDtF04sZw0lH3QtSDKXkkLLPr3kfIWD9YdgveE5WZGaBLHLkQpUbRypNSJasVVW9Sz7tf9yzvd9btDA27GgMXLtCi6P8CVHVTkaGYzNP1JJ5VS_T0wDYQVyoPgYCSk=4356504C</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>上記で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>requirements.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に記載されたパッケージがインストールされる</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下コマンドでpythonの仮想環境を作成</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>カソウカンキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pip install -r requirements.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +322,11 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -364,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,6 +358,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,12 +696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28F5AE8-1606-45FB-9ABF-73E061258F12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -748,7 +739,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -758,80 +749,78 @@
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="2" t="s">
-        <v>14</v>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -841,26 +830,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86E840C-DED6-4EF9-A2A6-A35E064DF866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/注意.xlsx
+++ b/注意.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>フォルダを作成</t>
     <rPh sb="5" eb="7">
@@ -274,13 +274,243 @@
   <si>
     <t>pip install -r requirements.txt</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CONFLUENCE_URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'https=//kc-factory-iot.atlassian.net/wiki/home'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MAIL_AD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'kanata-osako@kccs.co.jp'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>USER_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'220750058'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PASSWORD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'62573489'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FILE_PATH_HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'./output.html'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FILE_PATH_MARKDOWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'./output.md'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SLACK_TOKEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SLACK_CHANNEL_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SLACK_BOT_TOKEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SLACK_SIGNING_SECRET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +557,24 @@
       <name val="Inherit"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -350,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,6 +609,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -858,13 +1109,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>